--- a/src/main/java/testdata/Eventcreation.xlsx
+++ b/src/main/java/testdata/Eventcreation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Automation Code\WTTAutomation\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Work\Automation_codes\Automation_code_22_07_22\WTT\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799EA1CD-D364-4E7B-8FBC-804542E02C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5803037D-1BBE-4113-B620-1078E091A16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EventCreation" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="394">
   <si>
     <t>text_event_core_tab_creation_EventName</t>
   </si>
@@ -1017,12 +1017,6 @@
     <t>Main Draw</t>
   </si>
   <si>
-    <t>date_event_creation_Draws_StartDateTime</t>
-  </si>
-  <si>
-    <t>date_event_creation_Draws_EndDate</t>
-  </si>
-  <si>
     <t>Draw Name</t>
   </si>
   <si>
@@ -1128,12 +1122,6 @@
     <t>button_event_creation_Documents_AddDocuments_ValidTo_datepicker</t>
   </si>
   <si>
-    <t>date_event_creation_Accreditation_AddAccreditationInformation_StartDate</t>
-  </si>
-  <si>
-    <t>date_event_creation_Accreditation_AddAccreditationInformation_EndDate</t>
-  </si>
-  <si>
     <t>VisaInformation</t>
   </si>
   <si>
@@ -1192,6 +1180,36 @@
   </si>
   <si>
     <t>textsearchbar_event_creation_KeyPersonsIndividualNamesearch</t>
+  </si>
+  <si>
+    <t>button_event_creation_Draws_StartDateTime</t>
+  </si>
+  <si>
+    <t>button_event_creation_Draws_StartDateTimepicker</t>
+  </si>
+  <si>
+    <t>button_event_creation_Draws_Datepickerset</t>
+  </si>
+  <si>
+    <t>button_event_creation_Draws_EndDate</t>
+  </si>
+  <si>
+    <t>button_event_creation_Draws_EndDatepicker</t>
+  </si>
+  <si>
+    <t>button_event_creation_Accreditation_AddAccreditationInformation_StartDate</t>
+  </si>
+  <si>
+    <t>button_event_creation_Accreditation_AddAccreditationInformation_StartDatepicker</t>
+  </si>
+  <si>
+    <t>button_event_creation_Accreditation_AddAccreditationInformation_Dateset</t>
+  </si>
+  <si>
+    <t>button_event_creation_Accreditation_AddAccreditationInformation_EndDate</t>
+  </si>
+  <si>
+    <t>button_event_creation_Accreditation_AddAccreditationInformation_EndDatepicker</t>
   </si>
 </sst>
 </file>
@@ -1521,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:LZ2"/>
+  <dimension ref="A1:MH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DA1" workbookViewId="0">
-      <selection activeCell="DD1" sqref="DD1"/>
+    <sheetView tabSelected="1" topLeftCell="LQ1" workbookViewId="0">
+      <selection activeCell="LQ1" sqref="LQ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1548,6 +1566,7 @@
     <col min="24" max="24" width="38.5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="47.5" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="41.125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="50.25" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="36.625" bestFit="1" customWidth="1"/>
@@ -1619,207 +1638,214 @@
     <col min="111" max="111" width="33" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="42.125" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="119" max="120" width="57.375" customWidth="1"/>
-    <col min="121" max="121" width="34" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="54.75" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="58.375" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="58.375" customWidth="1"/>
-    <col min="125" max="126" width="48.375" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="51.125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="53.75" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="60.125" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="65.5" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="55.625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="134" max="136" width="46.625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="139" max="140" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="41.125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="52" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="52" customWidth="1"/>
-    <col min="144" max="144" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="41.125" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="53.75" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="51.125" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="48.375" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="54.75" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="46.625" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="59.25" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="33" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="55.625" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="54.75" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="53.75" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="60.125" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="63.75" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="96.75" customWidth="1"/>
-    <col min="174" max="174" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="61" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="46.625" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="59.25" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="43" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="63.75" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="191" max="193" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="69.125" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="65.5" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="197" max="198" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="43" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="43" customWidth="1"/>
+    <col min="116" max="116" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="118" max="119" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="123" max="124" width="57.375" customWidth="1"/>
+    <col min="125" max="125" width="34" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="58.375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="58.375" customWidth="1"/>
+    <col min="129" max="130" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="60.125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="55.625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="138" max="140" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="143" max="144" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="52" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="52" customWidth="1"/>
+    <col min="148" max="148" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="59.25" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="33" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="55.625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="60.125" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="96.75" customWidth="1"/>
+    <col min="178" max="178" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="61" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="59.25" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="43" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="195" max="197" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="65.5" bestFit="1" customWidth="1"/>
     <col min="200" max="200" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="78.125" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="80.875" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="100.625" customWidth="1"/>
-    <col min="204" max="204" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="34" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="43" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="72.75" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="73.625" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="76.375" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="72.75" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="51.125" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="61" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="67.375" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="70" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="72.75" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="72.75" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="79.125" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="68.25" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="74.5" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="69.125" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="60.125" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="81.75" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="84.5" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="95.25" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="79.125" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="61" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="41.125" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="65.5" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="71.875" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="78.125" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="77.25" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="71" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="77.25" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="83.625" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="72.75" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="79.125" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="73.625" bestFit="1" customWidth="1"/>
-    <col min="263" max="264" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="65.5" bestFit="1" customWidth="1"/>
-    <col min="266" max="267" width="71.875" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="74.5" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="67.375" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="65.5" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="54.75" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="51.125" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="52" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="68.25" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="71.875" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="71.875" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="96.25" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="97.125" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="82.625" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="34" bestFit="1" customWidth="1"/>
-    <col min="297" max="298" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="53.75" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="68.25" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="74.5" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="58.375" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="305" max="305" width="71" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="59.25" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="68.25" bestFit="1" customWidth="1"/>
-    <col min="308" max="308" width="54.75" bestFit="1" customWidth="1"/>
-    <col min="309" max="309" width="36.625" hidden="1" customWidth="1"/>
-    <col min="310" max="310" width="32.125" hidden="1" customWidth="1"/>
-    <col min="311" max="311" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="312" max="312" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="313" max="313" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="51.125" bestFit="1" customWidth="1"/>
-    <col min="315" max="315" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="316" max="316" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="317" max="317" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="318" max="318" width="52" bestFit="1" customWidth="1"/>
-    <col min="319" max="319" width="61" bestFit="1" customWidth="1"/>
-    <col min="320" max="320" width="48.375" bestFit="1" customWidth="1"/>
-    <col min="321" max="321" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="322" max="322" width="49.25" bestFit="1" customWidth="1"/>
-    <col min="323" max="323" width="49.25" customWidth="1"/>
-    <col min="324" max="324" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="325" max="325" width="47.5" customWidth="1"/>
-    <col min="326" max="326" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="327" max="327" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="328" max="328" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="329" max="329" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="330" max="330" width="62.875" bestFit="1" customWidth="1"/>
-    <col min="331" max="332" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="201" max="202" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="78.125" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="80.875" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="100.625" customWidth="1"/>
+    <col min="208" max="208" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="34" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="43" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="73.625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="76.375" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="61" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="67.375" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="70" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="79.125" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="68.25" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="60.125" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="81.75" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="84.5" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="95.25" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="79.125" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="61" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="71.875" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="78.125" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="77.25" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="71" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="77.25" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="83.625" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="79.125" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="73.625" bestFit="1" customWidth="1"/>
+    <col min="267" max="268" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="270" max="271" width="71.875" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="67.375" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="52" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="68.25" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="71.875" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="71.875" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="96.25" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="97.125" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="82.625" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="34" bestFit="1" customWidth="1"/>
+    <col min="301" max="302" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="305" max="305" width="68.25" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="58.375" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="71" bestFit="1" customWidth="1"/>
+    <col min="310" max="310" width="59.25" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="68.25" bestFit="1" customWidth="1"/>
+    <col min="312" max="312" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="313" max="313" width="36.625" hidden="1" customWidth="1"/>
+    <col min="314" max="314" width="32.125" hidden="1" customWidth="1"/>
+    <col min="315" max="315" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="317" max="317" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="318" max="318" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="319" max="319" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="320" max="320" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="321" max="321" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="322" max="322" width="52" bestFit="1" customWidth="1"/>
+    <col min="323" max="323" width="61" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="325" max="325" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="326" max="326" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="327" max="327" width="49.25" customWidth="1"/>
+    <col min="328" max="328" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="329" max="329" width="47.5" customWidth="1"/>
+    <col min="330" max="330" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="331" max="331" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="332" max="332" width="38.5" bestFit="1" customWidth="1"/>
     <col min="333" max="333" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="334" max="334" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="335" max="335" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="336" max="336" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="337" max="337" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="338" max="338" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="334" max="334" width="71.875" bestFit="1" customWidth="1"/>
+    <col min="335" max="335" width="64.625" customWidth="1"/>
+    <col min="336" max="336" width="62.875" bestFit="1" customWidth="1"/>
+    <col min="337" max="337" width="70" bestFit="1" customWidth="1"/>
+    <col min="338" max="338" width="62.875" customWidth="1"/>
+    <col min="339" max="340" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="341" max="341" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="342" max="342" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="343" max="343" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="344" max="344" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="345" max="345" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="346" max="346" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:338" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1887,7 +1913,7 @@
         <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>18</v>
@@ -1944,10 +1970,10 @@
         <v>29</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>30</v>
@@ -2121,10 +2147,10 @@
         <v>74</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="CY1" s="1" t="s">
         <v>75</v>
@@ -2157,685 +2183,709 @@
         <v>279</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>329</v>
+        <v>384</v>
       </c>
       <c r="DJ1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="DL1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="DS1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="DL1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="DU1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="DR1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="DY1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="EL1" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="EN1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="ER1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="ES1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c r="ET1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="EU1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="ER1" s="1" t="s">
+      <c r="EV1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="ES1" s="1" t="s">
+      <c r="EW1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="ET1" s="1" t="s">
+      <c r="EX1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="EU1" s="1" t="s">
+      <c r="EY1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="EV1" s="1" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="EW1" s="1" t="s">
+      <c r="FA1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="EX1" s="1" t="s">
+      <c r="FB1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="EY1" s="1" t="s">
+      <c r="FC1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="EZ1" s="1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="FA1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FF1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c r="FG1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FH1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="FI1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="FF1" s="1" t="s">
+      <c r="FJ1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="FG1" s="1" t="s">
+      <c r="FK1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="FH1" s="1" t="s">
+      <c r="FL1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="FI1" s="1" t="s">
+      <c r="FM1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="FJ1" s="1" t="s">
+      <c r="FN1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="FP1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="FK1" s="1" t="s">
+      <c r="FQ1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="FL1" s="1" t="s">
+      <c r="FR1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="FM1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="FN1" s="1" t="s">
+      <c r="FS1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="FT1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="FU1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="FO1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="FR1" s="1" t="s">
+      <c r="FV1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="FW1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="FX1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="FY1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="GA1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="GB1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="GC1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="GD1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="GE1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="GF1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="GG1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="GH1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="GI1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="GJ1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="GK1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="GQ1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="GR1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="GS1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="GT1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="HK1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="FS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="HI1" s="1" t="s">
+      <c r="HL1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="HM1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="HJ1" s="1" t="s">
+      <c r="HN1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="HK1" s="1" t="s">
+      <c r="HO1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="HL1" s="1" t="s">
+      <c r="HP1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="HM1" s="1" t="s">
+      <c r="HQ1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="HN1" s="1" t="s">
+      <c r="HR1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="HO1" s="1" t="s">
+      <c r="HS1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="HP1" s="1" t="s">
+      <c r="HT1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="HQ1" s="1" t="s">
+      <c r="HU1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="HR1" s="1" t="s">
+      <c r="HV1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="HS1" s="1" t="s">
+      <c r="HW1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="HT1" s="1" t="s">
+      <c r="HX1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="HU1" s="1" t="s">
+      <c r="HY1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="HV1" s="1" t="s">
+      <c r="HZ1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="HW1" s="1" t="s">
+      <c r="IA1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="HX1" s="1" t="s">
+      <c r="IB1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="HY1" s="1" t="s">
+      <c r="IC1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="HZ1" s="1" t="s">
+      <c r="ID1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="IA1" s="1" t="s">
+      <c r="IE1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="IB1" s="1" t="s">
+      <c r="IF1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="IC1" s="1" t="s">
+      <c r="IG1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="ID1" s="1" t="s">
+      <c r="IH1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="IE1" s="1" t="s">
+      <c r="II1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="IF1" s="1" t="s">
+      <c r="IJ1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="IG1" s="1" t="s">
+      <c r="IK1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="IH1" s="1" t="s">
+      <c r="IL1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="II1" s="1" t="s">
+      <c r="IM1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="IJ1" s="1" t="s">
+      <c r="IN1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="IK1" s="1" t="s">
+      <c r="IO1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="IL1" s="1" t="s">
+      <c r="IP1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="IM1" s="1" t="s">
+      <c r="IQ1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="IN1" s="1" t="s">
+      <c r="IR1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="IO1" s="1" t="s">
+      <c r="IS1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="IP1" s="1" t="s">
+      <c r="IT1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+      <c r="IU1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="IV1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="IS1" s="1" t="s">
+      <c r="IW1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="IT1" s="1" t="s">
+      <c r="IX1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="IU1" s="1" t="s">
+      <c r="IY1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="IV1" s="1" t="s">
+      <c r="IZ1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="IW1" s="1" t="s">
+      <c r="JA1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="IX1" s="1" t="s">
+      <c r="JB1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="IY1" s="1" t="s">
+      <c r="JC1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="IZ1" s="1" t="s">
+      <c r="JD1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="JA1" s="1" t="s">
+      <c r="JE1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="JB1" s="1" t="s">
+      <c r="JF1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="JC1" s="1" t="s">
+      <c r="JG1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="JD1" s="1" t="s">
+      <c r="JH1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="JE1" s="1" t="s">
+      <c r="JI1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="JF1" s="1" t="s">
+      <c r="JJ1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="JG1" s="1" t="s">
+      <c r="JK1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="JH1" s="1" t="s">
+      <c r="JL1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="JI1" s="1" t="s">
+      <c r="JM1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="JJ1" s="1" t="s">
+      <c r="JN1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="JK1" s="1" t="s">
+      <c r="JO1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="JL1" s="1" t="s">
+      <c r="JP1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="JM1" s="1" t="s">
+      <c r="JQ1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="JN1" s="1" t="s">
+      <c r="JR1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="JO1" s="1" t="s">
+      <c r="JS1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="JP1" s="1" t="s">
+      <c r="JT1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="JQ1" s="1" t="s">
+      <c r="JU1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="JR1" s="1" t="s">
+      <c r="JV1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="JS1" s="1" t="s">
+      <c r="JW1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="JT1" s="1" t="s">
+      <c r="JX1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="JU1" s="1" t="s">
+      <c r="JY1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="JV1" s="1" t="s">
+      <c r="JZ1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="JW1" s="1" t="s">
+      <c r="KA1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="JX1" s="1" t="s">
+      <c r="KB1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="JY1" s="1" t="s">
+      <c r="KC1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="JZ1" s="1" t="s">
+      <c r="KD1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="KA1" s="1" t="s">
+      <c r="KE1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="KB1" s="1" t="s">
+      <c r="KF1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="KC1" s="1" t="s">
+      <c r="KG1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="KD1" s="1" t="s">
+      <c r="KH1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="KE1" s="1" t="s">
+      <c r="KI1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="KF1" s="1" t="s">
+      <c r="KJ1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="KG1" s="1" t="s">
+      <c r="KK1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="KH1" s="1" t="s">
+      <c r="KL1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="KI1" s="1" t="s">
+      <c r="KM1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="KJ1" s="1" t="s">
+      <c r="KN1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="KK1" s="1" t="s">
+      <c r="KO1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="KL1" s="1" t="s">
+      <c r="KP1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="KM1" s="1" t="s">
+      <c r="KQ1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="KN1" s="1" t="s">
+      <c r="KR1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="KO1" s="1" t="s">
+      <c r="KS1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="KP1" s="1" t="s">
+      <c r="KT1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="KQ1" s="1" t="s">
+      <c r="KU1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="KR1" s="1" t="s">
+      <c r="KV1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="KS1" s="1" t="s">
+      <c r="KW1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="KT1" s="1" t="s">
+      <c r="KX1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="KU1" s="1" t="s">
+      <c r="KY1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="KV1" s="1" t="s">
+      <c r="KZ1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="KW1" s="1" t="s">
+      <c r="LA1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="KX1" s="1" t="s">
+      <c r="LB1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="KY1" s="1" t="s">
+      <c r="LC1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="KZ1" s="1" t="s">
+      <c r="LD1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="LA1" s="1" t="s">
+      <c r="LE1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="LB1" s="1" t="s">
+      <c r="LF1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="LC1" s="1" t="s">
+      <c r="LG1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="LD1" s="1" t="s">
+      <c r="LH1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="LE1" s="1" t="s">
+      <c r="LI1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="LF1" s="1" t="s">
+      <c r="LJ1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="LG1" s="1" t="s">
+      <c r="LK1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="LH1" s="1" t="s">
+      <c r="LL1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="LI1" s="1" t="s">
+      <c r="LM1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="LJ1" s="1" t="s">
+      <c r="LN1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="LK1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="LL1" s="1" t="s">
+      <c r="LO1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="LP1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="LM1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="LN1" s="1" t="s">
+      <c r="LQ1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="LR1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="LO1" s="1" t="s">
+      <c r="LS1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="LP1" s="1" t="s">
+      <c r="LT1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="LQ1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="LR1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="LS1" s="1" t="s">
+      <c r="LU1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="LY1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="LZ1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="MA1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="LT1" s="1" t="s">
+      <c r="MB1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="LU1" s="1" t="s">
+      <c r="MC1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="LV1" s="1" t="s">
+      <c r="MD1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="LW1" s="1" t="s">
+      <c r="ME1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="LX1" s="1" t="s">
+      <c r="MF1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="LY1" s="1" t="s">
+      <c r="MG1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="LZ1" s="1" t="s">
+      <c r="MH1" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:338" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:346" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>298</v>
       </c>
@@ -2849,7 +2899,7 @@
         <v>298</v>
       </c>
       <c r="E2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F2" t="s">
         <v>298</v>
@@ -2903,7 +2953,7 @@
         <v>298</v>
       </c>
       <c r="W2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="X2" t="s">
         <v>298</v>
@@ -2942,13 +2992,13 @@
         <v>298</v>
       </c>
       <c r="AJ2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AK2" t="s">
         <v>298</v>
       </c>
       <c r="AL2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AM2" t="s">
         <v>298</v>
@@ -3137,7 +3187,7 @@
         <v>298</v>
       </c>
       <c r="CW2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="CX2" t="s">
         <v>298</v>
@@ -3185,7 +3235,7 @@
         <v>298</v>
       </c>
       <c r="DM2" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="DN2" t="s">
         <v>298</v>
@@ -3197,149 +3247,149 @@
         <v>298</v>
       </c>
       <c r="DQ2" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="DR2" t="s">
         <v>298</v>
       </c>
       <c r="DS2" t="s">
-        <v>374</v>
-      </c>
-      <c r="DT2" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>370</v>
+      </c>
+      <c r="DX2" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="DU2" s="2" t="s">
+      <c r="DY2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="DZ2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="EA2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="EB2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="EC2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="ED2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="EE2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="EF2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EM2" t="s">
         <v>334</v>
       </c>
-      <c r="DV2" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="DW2" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="DX2" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="DY2" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="DZ2" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="EA2" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="EB2" s="2" t="s">
+      <c r="EN2" t="s">
         <v>335</v>
       </c>
-      <c r="EC2" t="s">
-        <v>298</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>298</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>298</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>298</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>298</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>298</v>
-      </c>
-      <c r="EI2" t="s">
+      <c r="EO2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EP2" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="EQ2" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>298</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>298</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EU2" t="s">
         <v>336</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="EV2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EY2" t="s">
         <v>337</v>
       </c>
-      <c r="EK2" t="s">
-        <v>298</v>
-      </c>
-      <c r="EL2" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="EM2" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>298</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>298</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>298</v>
-      </c>
-      <c r="EQ2" t="s">
+      <c r="EZ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FC2" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="ER2" t="s">
-        <v>298</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>298</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>298</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>339</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>298</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>298</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>298</v>
-      </c>
-      <c r="EY2" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>298</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>298</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>298</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>340</v>
-      </c>
       <c r="FD2" t="s">
         <v>298</v>
       </c>
       <c r="FE2" t="s">
         <v>298</v>
       </c>
-      <c r="FF2" s="2" t="s">
+      <c r="FF2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>338</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FJ2" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="FG2" s="2" t="s">
+      <c r="FK2" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="FH2" s="2" t="s">
+      <c r="FL2" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="FI2" t="s">
-        <v>298</v>
-      </c>
-      <c r="FJ2" t="s">
-        <v>298</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>298</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>298</v>
-      </c>
       <c r="FM2" t="s">
         <v>298</v>
       </c>
@@ -3350,7 +3400,7 @@
         <v>298</v>
       </c>
       <c r="FP2" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="FQ2" t="s">
         <v>298</v>
@@ -3362,7 +3412,7 @@
         <v>298</v>
       </c>
       <c r="FT2" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="FU2" t="s">
         <v>298</v>
@@ -3388,21 +3438,21 @@
       <c r="GB2" t="s">
         <v>298</v>
       </c>
-      <c r="GC2" s="2" t="s">
+      <c r="GC2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GG2" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="GD2" t="s">
-        <v>298</v>
-      </c>
-      <c r="GE2" t="s">
-        <v>298</v>
-      </c>
-      <c r="GF2" t="s">
-        <v>298</v>
-      </c>
-      <c r="GG2" t="s">
-        <v>298</v>
-      </c>
       <c r="GH2" t="s">
         <v>298</v>
       </c>
@@ -3433,14 +3483,14 @@
       <c r="GQ2" t="s">
         <v>298</v>
       </c>
-      <c r="GR2" s="2" t="s">
-        <v>317</v>
+      <c r="GR2" t="s">
+        <v>298</v>
       </c>
       <c r="GS2" t="s">
         <v>298</v>
       </c>
-      <c r="GT2" s="2" t="s">
-        <v>317</v>
+      <c r="GT2" t="s">
+        <v>298</v>
       </c>
       <c r="GU2" t="s">
         <v>298</v>
@@ -3451,17 +3501,17 @@
       <c r="GW2" t="s">
         <v>298</v>
       </c>
-      <c r="GX2" t="s">
-        <v>298</v>
+      <c r="GX2" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="GY2" t="s">
         <v>298</v>
       </c>
-      <c r="GZ2" t="s">
-        <v>298</v>
+      <c r="GZ2" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="HA2" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="HB2" t="s">
         <v>298</v>
@@ -3469,21 +3519,21 @@
       <c r="HC2" t="s">
         <v>298</v>
       </c>
-      <c r="HD2" s="2" t="s">
+      <c r="HD2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>347</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HH2" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="HE2" t="s">
-        <v>298</v>
-      </c>
-      <c r="HF2" t="s">
-        <v>298</v>
-      </c>
-      <c r="HG2" t="s">
-        <v>298</v>
-      </c>
-      <c r="HH2" t="s">
-        <v>298</v>
-      </c>
       <c r="HI2" t="s">
         <v>298</v>
       </c>
@@ -3527,7 +3577,7 @@
         <v>298</v>
       </c>
       <c r="HW2" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="HX2" t="s">
         <v>298</v>
@@ -3536,22 +3586,22 @@
         <v>298</v>
       </c>
       <c r="HZ2" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="IA2" t="s">
-        <v>298</v>
-      </c>
-      <c r="IB2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="IC2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="ID2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="IE2" s="2" t="s">
-        <v>317</v>
+        <v>350</v>
+      </c>
+      <c r="IB2" t="s">
+        <v>298</v>
+      </c>
+      <c r="IC2" t="s">
+        <v>298</v>
+      </c>
+      <c r="ID2" t="s">
+        <v>338</v>
+      </c>
+      <c r="IE2" t="s">
+        <v>298</v>
       </c>
       <c r="IF2" s="2" t="s">
         <v>317</v>
@@ -3565,35 +3615,35 @@
       <c r="II2" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="IJ2" t="s">
-        <v>298</v>
-      </c>
-      <c r="IK2" t="s">
-        <v>298</v>
+      <c r="IJ2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="IK2" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="IL2" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="IM2" t="s">
-        <v>298</v>
-      </c>
-      <c r="IN2" s="2" t="s">
+      <c r="IM2" s="2" t="s">
         <v>317</v>
       </c>
+      <c r="IN2" t="s">
+        <v>298</v>
+      </c>
       <c r="IO2" t="s">
         <v>298</v>
       </c>
-      <c r="IP2" t="s">
-        <v>298</v>
+      <c r="IP2" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="IQ2" t="s">
         <v>298</v>
       </c>
-      <c r="IR2" t="s">
-        <v>298</v>
+      <c r="IR2" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="IS2" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="IT2" t="s">
         <v>298</v>
@@ -3605,7 +3655,7 @@
         <v>298</v>
       </c>
       <c r="IW2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="IX2" t="s">
         <v>298</v>
@@ -3614,22 +3664,22 @@
         <v>298</v>
       </c>
       <c r="IZ2" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="JA2" t="s">
-        <v>298</v>
-      </c>
-      <c r="JB2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="JC2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="JD2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="JE2" s="2" t="s">
-        <v>317</v>
+        <v>350</v>
+      </c>
+      <c r="JB2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JC2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>338</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>298</v>
       </c>
       <c r="JF2" s="2" t="s">
         <v>317</v>
@@ -3641,176 +3691,176 @@
         <v>317</v>
       </c>
       <c r="JI2" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="JJ2" t="s">
-        <v>298</v>
-      </c>
-      <c r="JK2" t="s">
-        <v>298</v>
-      </c>
-      <c r="JL2" t="s">
-        <v>298</v>
-      </c>
-      <c r="JM2" t="s">
-        <v>298</v>
+        <v>317</v>
+      </c>
+      <c r="JJ2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="JK2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="JL2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="JM2" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="JN2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JO2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JP2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JQ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JR2" t="s">
+        <v>352</v>
+      </c>
+      <c r="JS2" t="s">
+        <v>353</v>
+      </c>
+      <c r="JT2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="JU2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JV2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JW2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JX2" t="s">
         <v>354</v>
       </c>
-      <c r="JO2" t="s">
+      <c r="JY2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JZ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KA2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KB2" t="s">
         <v>355</v>
       </c>
-      <c r="JP2" s="2" t="s">
+      <c r="KC2" t="s">
+        <v>356</v>
+      </c>
+      <c r="KD2" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="JQ2" t="s">
-        <v>298</v>
-      </c>
-      <c r="JR2" t="s">
-        <v>298</v>
-      </c>
-      <c r="JS2" t="s">
-        <v>298</v>
-      </c>
-      <c r="JT2" t="s">
-        <v>356</v>
-      </c>
-      <c r="JU2" t="s">
-        <v>298</v>
-      </c>
-      <c r="JV2" t="s">
-        <v>298</v>
-      </c>
-      <c r="JW2" t="s">
-        <v>298</v>
-      </c>
-      <c r="JX2" t="s">
+      <c r="KE2" t="s">
         <v>357</v>
       </c>
-      <c r="JY2" t="s">
+      <c r="KF2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KL2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KM2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KN2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KO2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KP2" t="s">
+        <v>333</v>
+      </c>
+      <c r="KQ2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="KR2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KS2" t="s">
         <v>358</v>
       </c>
-      <c r="JZ2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="KA2" t="s">
+      <c r="KT2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KU2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KV2" t="s">
         <v>359</v>
       </c>
-      <c r="KB2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="KC2" t="s">
-        <v>298</v>
-      </c>
-      <c r="KD2" t="s">
-        <v>298</v>
-      </c>
-      <c r="KE2" t="s">
-        <v>298</v>
-      </c>
-      <c r="KF2" t="s">
-        <v>298</v>
-      </c>
-      <c r="KG2" t="s">
-        <v>298</v>
-      </c>
-      <c r="KH2" t="s">
-        <v>298</v>
-      </c>
-      <c r="KI2" t="s">
-        <v>298</v>
-      </c>
-      <c r="KJ2" t="s">
-        <v>298</v>
-      </c>
-      <c r="KK2" t="s">
-        <v>298</v>
-      </c>
-      <c r="KL2" t="s">
-        <v>335</v>
-      </c>
-      <c r="KM2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="KN2" t="s">
-        <v>298</v>
-      </c>
-      <c r="KO2" t="s">
+      <c r="KW2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KX2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KY2" t="s">
+        <v>306</v>
+      </c>
+      <c r="KZ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LA2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LB2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LC2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LD2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LE2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LF2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LG2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LH2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LI2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LJ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LK2" t="s">
         <v>360</v>
       </c>
-      <c r="KP2" t="s">
-        <v>298</v>
-      </c>
-      <c r="KQ2" t="s">
-        <v>298</v>
-      </c>
-      <c r="KR2" t="s">
+      <c r="LL2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LM2" t="s">
         <v>361</v>
       </c>
-      <c r="KS2" t="s">
-        <v>298</v>
-      </c>
-      <c r="KT2" t="s">
-        <v>298</v>
-      </c>
-      <c r="KU2" t="s">
-        <v>306</v>
-      </c>
-      <c r="KV2" t="s">
-        <v>298</v>
-      </c>
-      <c r="KW2" t="s">
-        <v>298</v>
-      </c>
-      <c r="KX2" t="s">
-        <v>298</v>
-      </c>
-      <c r="KY2" t="s">
-        <v>298</v>
-      </c>
-      <c r="KZ2" t="s">
-        <v>298</v>
-      </c>
-      <c r="LA2" t="s">
-        <v>298</v>
-      </c>
-      <c r="LB2" t="s">
-        <v>298</v>
-      </c>
-      <c r="LC2" t="s">
-        <v>298</v>
-      </c>
-      <c r="LD2" t="s">
-        <v>298</v>
-      </c>
-      <c r="LE2" t="s">
-        <v>298</v>
-      </c>
-      <c r="LF2" t="s">
-        <v>298</v>
-      </c>
-      <c r="LG2" t="s">
-        <v>362</v>
-      </c>
-      <c r="LH2" t="s">
-        <v>298</v>
-      </c>
-      <c r="LI2" t="s">
-        <v>363</v>
-      </c>
-      <c r="LJ2" t="s">
-        <v>298</v>
-      </c>
-      <c r="LK2" t="s">
-        <v>298</v>
-      </c>
-      <c r="LL2" t="s">
-        <v>298</v>
-      </c>
-      <c r="LM2" t="s">
-        <v>298</v>
-      </c>
       <c r="LN2" t="s">
         <v>298</v>
       </c>
@@ -3839,15 +3889,39 @@
         <v>298</v>
       </c>
       <c r="LW2" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="LX2" t="s">
         <v>298</v>
       </c>
       <c r="LY2" t="s">
-        <v>369</v>
+        <v>298</v>
       </c>
       <c r="LZ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="MA2" t="s">
+        <v>298</v>
+      </c>
+      <c r="MB2" t="s">
+        <v>298</v>
+      </c>
+      <c r="MC2" t="s">
+        <v>298</v>
+      </c>
+      <c r="MD2" t="s">
+        <v>298</v>
+      </c>
+      <c r="ME2" t="s">
+        <v>364</v>
+      </c>
+      <c r="MF2" t="s">
+        <v>298</v>
+      </c>
+      <c r="MG2" t="s">
+        <v>365</v>
+      </c>
+      <c r="MH2" t="s">
         <v>298</v>
       </c>
     </row>
